--- a/会计/Manufacturing Account/UEB 1983 Q2.xlsx
+++ b/会计/Manufacturing Account/UEB 1983 Q2.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melvinchia/Documents/involution/会计/Manufacturing Account/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AD923A-6FFC-7544-B51F-442C0FEBFA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0375B06A-AF41-884B-BDFA-734B108F6D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440" xr2:uid="{CD5314ED-361D-7542-BE0B-0247C8F8C426}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -226,22 +226,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -253,6 +247,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -572,10 +575,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:C88"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="188" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -584,48 +587,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4">
         <v>8000</v>
       </c>
     </row>
@@ -633,498 +636,500 @@
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6">
+      <c r="C8" s="6">
         <v>54000</v>
       </c>
-      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="C9" s="10">
+        <f>C7+C8</f>
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B10" s="4"/>
+      <c r="C10" s="6">
         <v>-8500</v>
       </c>
-      <c r="C9" s="8">
-        <f>B8+B9</f>
-        <v>45500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6">
-        <f>C7+C9</f>
+    </row>
+    <row r="11" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+      <c r="C11" s="10">
+        <f>C9+C10</f>
         <v>53500</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+    <row r="12" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="8">
+      <c r="B13" s="4"/>
+      <c r="C13" s="6">
         <v>10500</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+    <row r="14" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6">
-        <f>C10+C12</f>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4">
+        <f>C11+C13</f>
         <v>64000</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+    <row r="15" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="6">
-        <v>900</v>
-      </c>
-      <c r="C15" s="6"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6">
-        <v>1000</v>
-      </c>
-      <c r="C16" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="4">
+        <v>900</v>
+      </c>
+      <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="6">
-        <v>3800</v>
-      </c>
-      <c r="C17" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="4">
+        <v>3800</v>
+      </c>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B19" s="4">
         <f>2500*9/10</f>
         <v>2250</v>
       </c>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B20" s="6">
         <v>8800</v>
       </c>
-      <c r="C19" s="8">
-        <f>SUM(B15:B19)</f>
+      <c r="C20" s="6">
+        <f>SUM(B16:B20)</f>
         <v>16750</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6">
-        <f>C13+C19</f>
+    <row r="21" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4">
+        <f>C14+C20</f>
         <v>80750</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="8">
+      <c r="B22" s="4"/>
+      <c r="C22" s="6">
         <v>3000</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6">
+    <row r="23" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4">
         <v>83750</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="8">
-        <v>-4000</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="6">
+        <v>-4000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4">
         <v>79750</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+    <row r="26" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="8">
-        <f>C26-C24</f>
+      <c r="B26" s="4"/>
+      <c r="C26" s="6">
+        <f>C27-C25</f>
         <v>20250</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+    <row r="27" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="9">
+      <c r="B27" s="4"/>
+      <c r="C27" s="7">
         <v>100000</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-    </row>
-    <row r="28" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4">
         <v>130000</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
+    <row r="30" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-    </row>
-    <row r="30" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="6">
-        <v>10000</v>
-      </c>
-      <c r="C30" s="6"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="4">
+        <v>10000</v>
+      </c>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B32" s="6">
         <v>100000</v>
       </c>
-      <c r="C31" s="6"/>
-    </row>
-    <row r="32" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="6">
-        <f>SUM(B30:B31)</f>
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="4">
+        <f>SUM(B31:B32)</f>
         <v>110000</v>
       </c>
-      <c r="C32" s="6"/>
-    </row>
-    <row r="33" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B34" s="6">
         <v>-12000</v>
       </c>
-      <c r="C33" s="8">
-        <f>-B32-B33</f>
+      <c r="C34" s="6">
+        <f>-B33-B34</f>
         <v>-98000</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+    <row r="35" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-    </row>
-    <row r="35" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6">
-        <f>C28+C33</f>
-        <v>32000</v>
-      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
     </row>
     <row r="36" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4">
+        <f>C29+C34</f>
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="8">
-        <f>C25</f>
+      <c r="B37" s="4"/>
+      <c r="C37" s="6">
+        <f>C26</f>
         <v>20250</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="6"/>
-      <c r="C37" s="6">
-        <f>C35+C36</f>
+    <row r="38" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4">
+        <f>C36+C37</f>
         <v>52250</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
+    <row r="39" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-    </row>
-    <row r="39" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" s="6">
-        <v>800</v>
-      </c>
-      <c r="C39" s="6"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
     </row>
     <row r="40" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40" s="6">
-        <v>9500</v>
-      </c>
-      <c r="C40" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="B40" s="4">
+        <v>800</v>
+      </c>
+      <c r="C40" s="4"/>
     </row>
     <row r="41" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B41" s="6">
-        <v>100</v>
-      </c>
-      <c r="C41" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="B41" s="4">
+        <v>9500</v>
+      </c>
+      <c r="C41" s="4"/>
     </row>
     <row r="42" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" s="6">
-        <v>250</v>
-      </c>
-      <c r="C42" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="B42" s="4">
+        <v>100</v>
+      </c>
+      <c r="C42" s="4"/>
     </row>
     <row r="43" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="4">
+        <v>250</v>
+      </c>
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B44" s="4">
         <v>8000</v>
       </c>
-      <c r="C43" s="8">
-        <f>-SUM(B39:B43)</f>
+      <c r="C44" s="6">
+        <f>-SUM(B40:B44)</f>
         <v>-18650</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+    <row r="45" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="9">
-        <f>C37+C43</f>
+      <c r="B45" s="4"/>
+      <c r="C45" s="7">
+        <f>C38+C44</f>
         <v>33600</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-    </row>
-    <row r="46" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
+    <row r="46" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
     </row>
     <row r="47" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
     </row>
     <row r="48" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
     </row>
     <row r="49" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
     </row>
     <row r="50" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
     </row>
     <row r="51" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
     </row>
     <row r="52" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
     </row>
     <row r="53" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
     </row>
     <row r="54" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
     </row>
     <row r="55" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
     </row>
     <row r="56" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
     </row>
     <row r="57" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
     </row>
     <row r="58" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
     </row>
     <row r="59" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
     </row>
     <row r="60" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
     </row>
     <row r="61" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
     </row>
     <row r="62" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
     </row>
     <row r="63" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
     </row>
     <row r="64" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
     </row>
     <row r="65" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
     </row>
     <row r="66" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
     </row>
     <row r="67" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
     </row>
     <row r="68" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
     </row>
     <row r="69" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
     </row>
     <row r="70" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
     </row>
     <row r="71" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
     </row>
     <row r="72" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
     </row>
     <row r="73" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
     </row>
     <row r="74" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
     </row>
     <row r="75" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
     </row>
     <row r="76" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
     </row>
     <row r="77" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
     </row>
     <row r="78" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
     </row>
     <row r="79" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
     </row>
     <row r="80" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
     </row>
     <row r="81" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
     </row>
     <row r="82" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
     </row>
     <row r="83" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
     </row>
     <row r="84" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
     </row>
     <row r="85" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
     </row>
     <row r="86" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
     </row>
     <row r="87" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+    </row>
+    <row r="88" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
